--- a/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/出口.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/出口.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,477 +528,286 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13063714.5246953</v>
+        <v>66871675.9901478</v>
       </c>
       <c r="C2" t="n">
-        <v>666857.72648283</v>
+        <v>8395086.06362823</v>
       </c>
       <c r="D2" t="n">
-        <v>5847007.62000175</v>
+        <v>8446626.954166191</v>
       </c>
       <c r="E2" t="n">
-        <v>231989481.37672</v>
+        <v>1119108719.92358</v>
       </c>
       <c r="F2" t="n">
-        <v>19190632.5564257</v>
+        <v>94420280.3400691</v>
       </c>
       <c r="G2" t="n">
-        <v>249234.760641196</v>
+        <v>9812177.97811155</v>
       </c>
       <c r="H2" t="n">
-        <v>10039062.08</v>
+        <v>42883843.4723683</v>
       </c>
       <c r="I2" t="n">
-        <v>14987156.8649343</v>
+        <v>74444291.2846311</v>
       </c>
       <c r="J2" t="n">
-        <v>81562195.7119014</v>
+        <v>492918659.910728</v>
       </c>
       <c r="K2" t="n">
-        <v>2261225.91102568</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
+        <v>8174685.05028788</v>
+      </c>
+      <c r="L2" t="n">
+        <v>791958.148114828</v>
+      </c>
       <c r="M2" t="n">
-        <v>44588471.5704688</v>
+        <v>147862250.338156</v>
       </c>
       <c r="N2" t="n">
-        <v>7615011.5622881</v>
+        <v>44466893.0955191</v>
       </c>
       <c r="O2" t="n">
-        <v>4006230.36599893</v>
+        <v>5343345.282956</v>
       </c>
       <c r="P2" t="n">
-        <v>14507201.3620234</v>
+        <v>71102192.8915845</v>
       </c>
       <c r="Q2" t="n">
-        <v>156395.686816744</v>
+        <v>2070132.88034644</v>
       </c>
       <c r="R2" t="n">
-        <v>3936231.1942068</v>
+        <v>19022111.8951195</v>
       </c>
       <c r="S2" t="n">
-        <v>9312851.878809391</v>
+        <v>22082508.3476439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20802597</v>
+        <v>97491639.45294219</v>
       </c>
       <c r="C3" t="n">
-        <v>12027927.1567458</v>
+        <v>9493378.580414571</v>
       </c>
       <c r="D3" t="n">
-        <v>4741964.93693822</v>
+        <v>7816220.63021789</v>
       </c>
       <c r="E3" t="n">
-        <v>309443175</v>
+        <v>1366658525.78813</v>
       </c>
       <c r="F3" t="n">
-        <v>21763899.0293428</v>
+        <v>98856503.20536479</v>
       </c>
       <c r="G3" t="n">
-        <v>1045918.64826155</v>
+        <v>7730236.31888125</v>
       </c>
       <c r="H3" t="n">
-        <v>10036576.4876463</v>
+        <v>41329287.4855198</v>
       </c>
       <c r="I3" t="n">
-        <v>28878774.7893385</v>
+        <v>123386341.060348</v>
       </c>
       <c r="J3" t="n">
-        <v>104448272.352118</v>
+        <v>590726233.64417</v>
       </c>
       <c r="K3" t="n">
-        <v>2630030</v>
+        <v>11744437.6484585</v>
       </c>
       <c r="L3" t="n">
-        <v>512777</v>
+        <v>778107.426425</v>
       </c>
       <c r="M3" t="n">
-        <v>54951070.1980396</v>
+        <v>159364386.074423</v>
       </c>
       <c r="N3" t="n">
-        <v>14518826.2031851</v>
+        <v>66923658.7822758</v>
       </c>
       <c r="O3" t="n">
-        <v>4484214.68145887</v>
+        <v>4661988.73521752</v>
       </c>
       <c r="P3" t="n">
-        <v>15270048.9603773</v>
+        <v>87454254.4450755</v>
       </c>
       <c r="Q3" t="n">
-        <v>218131.595037687</v>
+        <v>4148021.88760893</v>
       </c>
       <c r="R3" t="n">
-        <v>4177255.93482122</v>
+        <v>26733885.1580718</v>
       </c>
       <c r="S3" t="n">
-        <v>8934889.75372057</v>
+        <v>28019945.2527183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42580384.3653377</v>
+        <v>93079741.56342719</v>
       </c>
       <c r="C4" t="n">
-        <v>18578895.1962825</v>
+        <v>11973906.3525331</v>
       </c>
       <c r="D4" t="n">
-        <v>6001733.44842256</v>
+        <v>9151855.09674361</v>
       </c>
       <c r="E4" t="n">
-        <v>684952724.660104</v>
+        <v>1484483433.03003</v>
       </c>
       <c r="F4" t="n">
-        <v>51339161.5471869</v>
+        <v>106982595.378081</v>
       </c>
       <c r="G4" t="n">
-        <v>2124066.03233</v>
+        <v>10371821.1478734</v>
       </c>
       <c r="H4" t="n">
-        <v>6374996.38171</v>
+        <v>32584946.5993487</v>
       </c>
       <c r="I4" t="n">
-        <v>49847242.7745059</v>
+        <v>178379773.019498</v>
       </c>
       <c r="J4" t="n">
-        <v>288774259.859574</v>
+        <v>625773503.23666</v>
       </c>
       <c r="K4" t="n">
-        <v>7049928.15834911</v>
+        <v>7455884.57087124</v>
       </c>
       <c r="L4" t="n">
-        <v>552519.734589202</v>
+        <v>876739.537</v>
       </c>
       <c r="M4" t="n">
-        <v>98959369.98632251</v>
+        <v>168236895.921065</v>
       </c>
       <c r="N4" t="n">
-        <v>31614161.3794903</v>
+        <v>70507854.4967743</v>
       </c>
       <c r="O4" t="n">
-        <v>7930210.37270744</v>
+        <v>3300221.31356336</v>
       </c>
       <c r="P4" t="n">
-        <v>47943620.0089285</v>
+        <v>98534635.112067</v>
       </c>
       <c r="Q4" t="n">
-        <v>569035.62133</v>
+        <v>5524352.37345445</v>
       </c>
       <c r="R4" t="n">
-        <v>9031299.00386497</v>
+        <v>33336193.8251003</v>
       </c>
       <c r="S4" t="n">
-        <v>15681840.7891729</v>
+        <v>28412513.4859664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60303334.0200313</v>
+        <v>13124814.3445848</v>
       </c>
       <c r="C5" t="n">
-        <v>7490928.1306752</v>
+        <v>40290250.1564992</v>
       </c>
       <c r="D5" t="n">
-        <v>6659785.1083398</v>
+        <v>11935754.5116521</v>
       </c>
       <c r="E5" t="n">
-        <v>955409910.047372</v>
-      </c>
-      <c r="F5" t="n">
-        <v>72379174.1176023</v>
-      </c>
+        <v>1638468236.32323</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>4088746.84</v>
-      </c>
-      <c r="H5" t="n">
-        <v>32094712.268</v>
-      </c>
-      <c r="I5" t="n">
-        <v>47440878.0536359</v>
-      </c>
+        <v>8252443.40181024</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>404595757.669627</v>
+        <v>707078598.406373</v>
       </c>
       <c r="K5" t="n">
-        <v>7678378.27588982</v>
+        <v>133860091.258621</v>
       </c>
       <c r="L5" t="n">
-        <v>651130.467364564</v>
+        <v>953252.364717239</v>
       </c>
       <c r="M5" t="n">
-        <v>138885319.909929</v>
-      </c>
-      <c r="N5" t="n">
-        <v>44780693.3170358</v>
-      </c>
+        <v>184337606.706223</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>6400504.5529125</v>
+        <v>4873424.68073292</v>
       </c>
       <c r="P5" t="n">
-        <v>87140072.55988111</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>862438.076</v>
-      </c>
+        <v>101480437.289876</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>14836921.2951168</v>
+        <v>28827542.8125352</v>
       </c>
       <c r="S5" t="n">
-        <v>19121135.3853318</v>
+        <v>35859177.1717096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66871675.9901478</v>
+        <v>16627327.8478102</v>
       </c>
       <c r="C6" t="n">
-        <v>8395086.06362823</v>
+        <v>48358795.8200918</v>
       </c>
       <c r="D6" t="n">
-        <v>8446626.954166191</v>
+        <v>18171672.0305951</v>
       </c>
       <c r="E6" t="n">
-        <v>1119108719.92358</v>
-      </c>
-      <c r="F6" t="n">
-        <v>94420280.3400691</v>
-      </c>
+        <v>1879260657.23314</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>9812177.97811155</v>
-      </c>
-      <c r="H6" t="n">
-        <v>42883843.4723683</v>
-      </c>
-      <c r="I6" t="n">
-        <v>74444291.2846311</v>
-      </c>
+        <v>8681061.280851699</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>492918659.910728</v>
+        <v>822324308.4141639</v>
       </c>
       <c r="K6" t="n">
-        <v>8174685.05028788</v>
+        <v>162240819.088872</v>
       </c>
       <c r="L6" t="n">
-        <v>791958.148114828</v>
+        <v>1045039.7484</v>
       </c>
       <c r="M6" t="n">
-        <v>147862250.338156</v>
-      </c>
-      <c r="N6" t="n">
-        <v>44466893.0955191</v>
-      </c>
+        <v>186801140.367055</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>5343345.282956</v>
+        <v>4679216.86746163</v>
       </c>
       <c r="P6" t="n">
-        <v>71102192.8915845</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2070132.88034644</v>
-      </c>
+        <v>108082156.796629</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>19022111.8951195</v>
+        <v>34554204.1794679</v>
       </c>
       <c r="S6" t="n">
-        <v>22082508.3476439</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>97491639.45294219</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9493378.580414571</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7816220.63021789</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1366658525.78813</v>
-      </c>
-      <c r="F7" t="n">
-        <v>98856503.20536479</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7730236.31888125</v>
-      </c>
-      <c r="H7" t="n">
-        <v>41329287.4855198</v>
-      </c>
-      <c r="I7" t="n">
-        <v>123386341.060348</v>
-      </c>
-      <c r="J7" t="n">
-        <v>590726233.64417</v>
-      </c>
-      <c r="K7" t="n">
-        <v>11744437.6484585</v>
-      </c>
-      <c r="L7" t="n">
-        <v>778107.426425</v>
-      </c>
-      <c r="M7" t="n">
-        <v>159364386.074423</v>
-      </c>
-      <c r="N7" t="n">
-        <v>66923658.7822758</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4661988.73521752</v>
-      </c>
-      <c r="P7" t="n">
-        <v>87454254.4450755</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4148021.88760893</v>
-      </c>
-      <c r="R7" t="n">
-        <v>26733885.1580718</v>
-      </c>
-      <c r="S7" t="n">
-        <v>28019945.2527183</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>93079741.56342719</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11973906.3525331</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9151855.09674361</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1484483433.03003</v>
-      </c>
-      <c r="F8" t="n">
-        <v>106982595.378081</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10371821.1478734</v>
-      </c>
-      <c r="H8" t="n">
-        <v>32584946.5993487</v>
-      </c>
-      <c r="I8" t="n">
-        <v>178379773.019498</v>
-      </c>
-      <c r="J8" t="n">
-        <v>625773503.23666</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7455884.57087124</v>
-      </c>
-      <c r="L8" t="n">
-        <v>876739.537</v>
-      </c>
-      <c r="M8" t="n">
-        <v>168236895.921065</v>
-      </c>
-      <c r="N8" t="n">
-        <v>70507854.4967743</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3300221.31356336</v>
-      </c>
-      <c r="P8" t="n">
-        <v>98534635.112067</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5524352.37345445</v>
-      </c>
-      <c r="R8" t="n">
-        <v>33336193.8251003</v>
-      </c>
-      <c r="S8" t="n">
-        <v>28412513.4859664</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>13124814.3445848</v>
-      </c>
-      <c r="C9" t="n">
-        <v>40290250.1564992</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11935754.5116521</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1638468236.32323</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>8252443.40181024</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>707078598.406373</v>
-      </c>
-      <c r="K9" t="n">
-        <v>133860091.258621</v>
-      </c>
-      <c r="L9" t="n">
-        <v>953252.364717239</v>
-      </c>
-      <c r="M9" t="n">
-        <v>184337606.706223</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>4873424.68073292</v>
-      </c>
-      <c r="P9" t="n">
-        <v>101480437.289876</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>28827542.8125352</v>
-      </c>
-      <c r="S9" t="n">
-        <v>35859177.1717096</v>
+        <v>35833494.4737183</v>
       </c>
     </row>
   </sheetData>
